--- a/biology/Botanique/Xylopia_nitida/Xylopia_nitida.xlsx
+++ b/biology/Botanique/Xylopia_nitida/Xylopia_nitida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Xylopia nitida est une espèce de petit arbre néotropicale appartenant à la famille des Annonaceae, connue en Guyane sous les noms de Lamoussé blanc (créole), Yãwĩ'ɨsĩ (Wayãpi, Envira-branca (Portugais)[5] et Pendjeku, Weti pendjeku (Aluku)[6]. Au Venezuela, on l'appelle Fruta de burro, Fruta de burro montañera[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Xylopia nitida est une espèce de petit arbre néotropicale appartenant à la famille des Annonaceae, connue en Guyane sous les noms de Lamoussé blanc (créole), Yãwĩ'ɨsĩ (Wayãpi, Envira-branca (Portugais) et Pendjeku, Weti pendjeku (Aluku). Au Venezuela, on l'appelle Fruta de burro, Fruta de burro montañera.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Xylopia nitida est un arbre, à contreforts abrupts, atteignant 20-35 m de hauteur pour 25-50 cm de diamètre.
 Les jeunes tiges sont densément couvertes de poils blancs, apprimés.
@@ -521,7 +535,7 @@
 Les pétales sont linéaires, de couleur blanchâtres à orange-ocre terne (marron foncé sur la face adaxiale) et séreux sur la face abaxiale.
 Ceux externes mesurent 15-17(20) x 2 mm, et ceux internes sont légèrement plus petits.
 On compte environ 25 carpelles de forme étroitement oblongues, rétrécis, longs de 35-40 mm, sur un stipe mesurant environ 10 × 1 mm, et contenant 4-7 graines vertes devenant rouge foncé.
-À maturité, les graines sont de couleur bleu-noir avec un arille bleu-gris[7],[8].
+À maturité, les graines sont de couleur bleu-noir avec un arille bleu-gris,.
 </t>
         </is>
       </c>
@@ -550,9 +564,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Xylopia nitida au Venezuela (Delta Amacuro, Bolívar), en Colombie, au Guyana, au Suriname, en Guyane et au Brésil[7].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Xylopia nitida au Venezuela (Delta Amacuro, Bolívar), en Colombie, au Guyana, au Suriname, en Guyane et au Brésil.
 </t>
         </is>
       </c>
@@ -581,10 +597,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Venezuela, Xylopia nitida pousse dans les Forêts semi-décidues, sempervirentes de plaine et submontagnardes, autour de 200-700 m d'altitude[7].
-Dans le centre de la Guyane, on rencontre Xylopia nitida dans les forêts de terre ferme de basse altitude, où il fleurit en mai, et fructifie en septembre-novembre[8].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Venezuela, Xylopia nitida pousse dans les Forêts semi-décidues, sempervirentes de plaine et submontagnardes, autour de 200-700 m d'altitude.
+Dans le centre de la Guyane, on rencontre Xylopia nitida dans les forêts de terre ferme de basse altitude, où il fleurit en mai, et fructifie en septembre-novembre.
 </t>
         </is>
       </c>
@@ -613,14 +631,12 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Guyane, certains Wayãpi considèrent l'écorce de Xylopia nitida comme fébrifuge[5]. Les graines de cette espèce étaient employées comme condiment (cf. Aublet, 1775[9]).
-Son bois de bonne qualité est souvent utilisé. L'anatomie de son bois a été décrite[10].
-Chimie
-L'huile essentielle des feuilles de Xylopia nitida a été analysée[11]. On y trouve principalement du γ-terpinène (44.1%), du p-cymène (13.7%), de l'α-terpinène (12.6%) et du limonène (11.3%)[12].
-Dans les racines de Xylopia nitida, on a isolé des molécules originales dont un diterpène (ent-kaur-16-en-18,19-diol) et un alcaloïde aporphine (5,6,6a,7-tetrahydro-1-methoxy-(6aS)-4H-benzo[de][1,3]benzodioxolo [5,6-g]quinoline), mais aussi du ent-trachylobane, du ent-trachyloban-18,19-diol, de l'acide ent-trachyloban-18-oïque, de l'acide ent-trachyloban-19-oïque, de la (−)-xylopine, du 1-O-ethyl-β-D-glucopyranose et un mélange de β-sitostérol et de stigmastérol[13].
-Xylopia nitida contient des diterpènes[14].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Guyane, certains Wayãpi considèrent l'écorce de Xylopia nitida comme fébrifuge. Les graines de cette espèce étaient employées comme condiment (cf. Aublet, 1775).
+Son bois de bonne qualité est souvent utilisé. L'anatomie de son bois a été décrite.
 </t>
         </is>
       </c>
@@ -646,12 +662,53 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chimie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'huile essentielle des feuilles de Xylopia nitida a été analysée. On y trouve principalement du γ-terpinène (44.1%), du p-cymène (13.7%), de l'α-terpinène (12.6%) et du limonène (11.3%).
+Dans les racines de Xylopia nitida, on a isolé des molécules originales dont un diterpène (ent-kaur-16-en-18,19-diol) et un alcaloïde aporphine (5,6,6a,7-tetrahydro-1-methoxy-(6aS)-4H-benzo[de][1,3]benzodioxolo [5,6-g]quinoline), mais aussi du ent-trachylobane, du ent-trachyloban-18,19-diol, de l'acide ent-trachyloban-18-oïque, de l'acide ent-trachyloban-19-oïque, de la (−)-xylopine, du 1-O-ethyl-β-D-glucopyranose et un mélange de β-sitostérol et de stigmastérol.
+Xylopia nitida contient des diterpènes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Xylopia_nitida</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Xylopia_nitida</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Protologues</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet décrit cette plante pour la première fois et propose la diagnose suivante[9] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet décrit cette plante pour la première fois et propose la diagnose suivante : 
 « WARIA (Zeylanica) foliis integerrimis. Lin. Spec. 756. 
 Waria. Fl. Zeyl. 224. 
 Funis muſarius. RUMPH. Amb. t.5.p.78.t.42. 
@@ -681,7 +738,7 @@
 Cet arbre eſt auſſi naturel à l'Iſle de France ; il y en à deux eſpèces que les Nègres nomment &amp; diſtinguent en BOIS BLANC À GRANDE FEUILLE, &amp; BOIS BLANC À PETITE FEUILLE. 
 J'ai obſervé ces deux arbres, en abondance dans les ravines &amp; forêts qui ſont au bas de la montagne qu’on deſcend pour arriver à la plaine des Hollandois, allant du port Louis au port du ſud-eſt par Moka. »
 — Fusée-Aublet, 1775.
-En 1817, le botaniste Michel Félix Dunal propose la diagnose suivante pour Xilopia nitida[2] :
+En 1817, le botaniste Michel Félix Dunal propose la diagnose suivante pour Xilopia nitida :
 « 6. Xylopia nitida. tab. 20.
 X. ramis rugosis , foliis oblongo-lanceolatis suprà nitidis , floribus racemosis , raceinis parvis , pedicellis bracteolatis.
 Hab. in montibus Orjac propè Cayennam. Martin. 5 (v.s.h.DC.)
